--- a/9999.개인프로젝트/01.분석설계/프로젝트 관리/프로젝트 계획서(241216).xlsx
+++ b/9999.개인프로젝트/01.분석설계/프로젝트 관리/프로젝트 계획서(241216).xlsx
@@ -956,16 +956,110 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">* 질문
+    <r>
+      <t xml:space="preserve">* 질문
 (common.css)
-1. 밑줄 애니메이션 오버 아웃시 밑줄이 오른쪽으로 가도록 변경하기
-2. 레이아웃 작업할 때 원본 페이지처럼 잡기가 어려워서 임의로 잡아서 진행하고 있는데, 이렇게 진행해도 괜찮을지?
+</t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="15"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1. 밑줄 애니메이션 오버 아웃시 밑줄이 오른쪽으로 가도록 변경하기(적용완료)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
 (main.css)
-3. 추천메뉴영역, Lookbook 영역 질문 
-4. HTML 구조 질문 328번째 행
-5. 작업영역에 대한 질문
+</t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="15"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">2. 추천메뉴영역, Lookbook 영역 질문 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="15"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">3. HTML 구조 질문 328번째 행
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+4. 작업영역에 대한 질문
 = 현재 하는 속도로 구현하는 양을 감당할 수 있을지 아니면 줄이는게 나을지
 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>-&gt; 수요일까지 지켜보고 구현범위 판단하는 것으로 진행</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -979,7 +1073,7 @@
     <numFmt numFmtId="178" formatCode="d"/>
     <numFmt numFmtId="179" formatCode="aaa"/>
   </numFmts>
-  <fonts count="21" x14ac:knownFonts="1">
+  <fonts count="22" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1150,6 +1244,14 @@
       <strike/>
       <sz val="15"/>
       <color rgb="FF0000FF"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="15"/>
+      <color rgb="FFFF0000"/>
       <name val="맑은 고딕"/>
       <family val="3"/>
       <charset val="129"/>
@@ -2640,7 +2742,7 @@
       </c>
       <c r="E3" s="16">
         <f ca="1">TODAY()</f>
-        <v>45639</v>
+        <v>45642</v>
       </c>
       <c r="F3" s="23" t="s">
         <v>3</v>
@@ -5712,10 +5814,10 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:N30"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A10" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="C1" activePane="topRight" state="frozen"/>
       <selection activeCell="A3" sqref="A3"/>
-      <selection pane="topRight" activeCell="H15" sqref="H15"/>
+      <selection pane="topRight" activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -5746,7 +5848,7 @@
       </c>
       <c r="D3" s="16">
         <f ca="1">TODAY()</f>
-        <v>45639</v>
+        <v>45642</v>
       </c>
       <c r="E3" s="23" t="s">
         <v>3</v>
@@ -6035,7 +6137,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="15" spans="1:14" s="13" customFormat="1" ht="409.5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:14" s="13" customFormat="1" ht="384" x14ac:dyDescent="0.3">
       <c r="A15" s="25" t="s">
         <v>136</v>
       </c>
@@ -6360,6 +6462,47 @@
     <row r="30" spans="1:14" ht="50.1" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="57">
+    <mergeCell ref="M4:M6"/>
+    <mergeCell ref="M11:M13"/>
+    <mergeCell ref="M17:M19"/>
+    <mergeCell ref="M23:M25"/>
+    <mergeCell ref="N4:N6"/>
+    <mergeCell ref="N11:N13"/>
+    <mergeCell ref="N17:N19"/>
+    <mergeCell ref="N23:N25"/>
+    <mergeCell ref="K4:K6"/>
+    <mergeCell ref="K11:K13"/>
+    <mergeCell ref="K17:K19"/>
+    <mergeCell ref="K23:K25"/>
+    <mergeCell ref="L4:L6"/>
+    <mergeCell ref="L11:L13"/>
+    <mergeCell ref="L17:L19"/>
+    <mergeCell ref="L23:L25"/>
+    <mergeCell ref="I4:I6"/>
+    <mergeCell ref="I11:I13"/>
+    <mergeCell ref="I17:I19"/>
+    <mergeCell ref="I23:I25"/>
+    <mergeCell ref="J4:J6"/>
+    <mergeCell ref="J11:J13"/>
+    <mergeCell ref="J17:J19"/>
+    <mergeCell ref="J23:J25"/>
+    <mergeCell ref="G4:G6"/>
+    <mergeCell ref="G11:G13"/>
+    <mergeCell ref="G17:G19"/>
+    <mergeCell ref="G23:G25"/>
+    <mergeCell ref="H4:H6"/>
+    <mergeCell ref="H11:H13"/>
+    <mergeCell ref="H17:H19"/>
+    <mergeCell ref="H23:H25"/>
+    <mergeCell ref="F4:F6"/>
+    <mergeCell ref="F11:F13"/>
+    <mergeCell ref="F17:F19"/>
+    <mergeCell ref="F23:F25"/>
+    <mergeCell ref="C17:C19"/>
+    <mergeCell ref="E4:E6"/>
+    <mergeCell ref="E11:E13"/>
+    <mergeCell ref="E17:E19"/>
+    <mergeCell ref="E23:E25"/>
     <mergeCell ref="A2:C2"/>
     <mergeCell ref="D11:D13"/>
     <mergeCell ref="D17:D19"/>
@@ -6376,47 +6519,6 @@
     <mergeCell ref="A11:A13"/>
     <mergeCell ref="C11:C13"/>
     <mergeCell ref="C23:C25"/>
-    <mergeCell ref="F4:F6"/>
-    <mergeCell ref="F11:F13"/>
-    <mergeCell ref="F17:F19"/>
-    <mergeCell ref="F23:F25"/>
-    <mergeCell ref="C17:C19"/>
-    <mergeCell ref="E4:E6"/>
-    <mergeCell ref="E11:E13"/>
-    <mergeCell ref="E17:E19"/>
-    <mergeCell ref="E23:E25"/>
-    <mergeCell ref="G4:G6"/>
-    <mergeCell ref="G11:G13"/>
-    <mergeCell ref="G17:G19"/>
-    <mergeCell ref="G23:G25"/>
-    <mergeCell ref="H4:H6"/>
-    <mergeCell ref="H11:H13"/>
-    <mergeCell ref="H17:H19"/>
-    <mergeCell ref="H23:H25"/>
-    <mergeCell ref="I4:I6"/>
-    <mergeCell ref="I11:I13"/>
-    <mergeCell ref="I17:I19"/>
-    <mergeCell ref="I23:I25"/>
-    <mergeCell ref="J4:J6"/>
-    <mergeCell ref="J11:J13"/>
-    <mergeCell ref="J17:J19"/>
-    <mergeCell ref="J23:J25"/>
-    <mergeCell ref="K4:K6"/>
-    <mergeCell ref="K11:K13"/>
-    <mergeCell ref="K17:K19"/>
-    <mergeCell ref="K23:K25"/>
-    <mergeCell ref="L4:L6"/>
-    <mergeCell ref="L11:L13"/>
-    <mergeCell ref="L17:L19"/>
-    <mergeCell ref="L23:L25"/>
-    <mergeCell ref="M4:M6"/>
-    <mergeCell ref="M11:M13"/>
-    <mergeCell ref="M17:M19"/>
-    <mergeCell ref="M23:M25"/>
-    <mergeCell ref="N4:N6"/>
-    <mergeCell ref="N11:N13"/>
-    <mergeCell ref="N17:N19"/>
-    <mergeCell ref="N23:N25"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
